--- a/old_image/evidence.xlsx
+++ b/old_image/evidence.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2147" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2147" uniqueCount="300">
   <si>
     <t>Path</t>
   </si>
@@ -670,21 +670,17 @@
     <t>Evidence.referentGroup.evidenceSource</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Group|EvidenceSet)
-</t>
-  </si>
-  <si>
-    <t>Various information categories of group</t>
-  </si>
-  <si>
-    <t>Various information categories of group.</t>
-  </si>
-  <si>
-    <t>Evidence.referentGroup.intendedGroup</t>
-  </si>
-  <si>
     <t xml:space="preserve">Reference(Group)
 </t>
+  </si>
+  <si>
+    <t>Various information categories of group</t>
+  </si>
+  <si>
+    <t>Various information categories of group.</t>
+  </si>
+  <si>
+    <t>Evidence.referentGroup.intendedGroup</t>
   </si>
   <si>
     <t>Non-actual group that is a set of characteristics</t>
@@ -4594,13 +4590,13 @@
         <v>40</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4680,7 +4676,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4703,13 +4699,13 @@
         <v>40</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4736,14 +4732,14 @@
         <v>40</v>
       </c>
       <c r="W33" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="X33" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="X33" t="s" s="2">
+      <c r="Y33" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="Y33" t="s" s="2">
-        <v>223</v>
-      </c>
       <c r="Z33" t="s" s="2">
         <v>40</v>
       </c>
@@ -4760,7 +4756,7 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -4789,7 +4785,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4815,10 +4811,10 @@
         <v>188</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4869,7 +4865,7 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
@@ -4898,7 +4894,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5007,7 +5003,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5118,7 +5114,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5231,7 +5227,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5257,10 +5253,10 @@
         <v>175</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5311,7 +5307,7 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
@@ -5340,7 +5336,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5420,7 +5416,7 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
@@ -5449,7 +5445,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5472,13 +5468,13 @@
         <v>40</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5505,14 +5501,14 @@
         <v>40</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="X40" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="Y40" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="Y40" t="s" s="2">
-        <v>238</v>
-      </c>
       <c r="Z40" t="s" s="2">
         <v>40</v>
       </c>
@@ -5529,7 +5525,7 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
@@ -5558,7 +5554,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5581,13 +5577,13 @@
         <v>49</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5638,7 +5634,7 @@
         <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>48</v>
@@ -5667,7 +5663,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5690,13 +5686,13 @@
         <v>40</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5747,7 +5743,7 @@
         <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
@@ -5776,7 +5772,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5799,13 +5795,13 @@
         <v>40</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="K43" t="s" s="2">
-        <v>219</v>
-      </c>
       <c r="L43" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -5832,14 +5828,14 @@
         <v>40</v>
       </c>
       <c r="W43" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="X43" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="X43" t="s" s="2">
+      <c r="Y43" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="Y43" t="s" s="2">
-        <v>223</v>
-      </c>
       <c r="Z43" t="s" s="2">
         <v>40</v>
       </c>
@@ -5856,7 +5852,7 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
@@ -5885,7 +5881,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5908,13 +5904,13 @@
         <v>40</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -5941,14 +5937,14 @@
         <v>40</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="X44" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="Y44" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="Y44" t="s" s="2">
-        <v>252</v>
-      </c>
       <c r="Z44" t="s" s="2">
         <v>40</v>
       </c>
@@ -5965,7 +5961,7 @@
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
@@ -5994,7 +5990,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6017,13 +6013,13 @@
         <v>40</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6050,14 +6046,14 @@
         <v>40</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="X45" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="Y45" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="Y45" t="s" s="2">
-        <v>257</v>
-      </c>
       <c r="Z45" t="s" s="2">
         <v>40</v>
       </c>
@@ -6074,7 +6070,7 @@
         <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
@@ -6103,7 +6099,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6126,13 +6122,13 @@
         <v>40</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6183,7 +6179,7 @@
         <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
@@ -6212,7 +6208,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6235,13 +6231,13 @@
         <v>40</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="K47" t="s" s="2">
+      <c r="L47" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6292,7 +6288,7 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
@@ -6321,7 +6317,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6347,10 +6343,10 @@
         <v>188</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6401,7 +6397,7 @@
         <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
@@ -6430,7 +6426,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6539,7 +6535,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6650,7 +6646,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6763,7 +6759,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6789,10 +6785,10 @@
         <v>119</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -6843,7 +6839,7 @@
         <v>40</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
@@ -6872,7 +6868,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -6952,7 +6948,7 @@
         <v>40</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
@@ -6981,7 +6977,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7004,13 +7000,13 @@
         <v>40</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7037,14 +7033,14 @@
         <v>40</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="X54" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="Y54" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="Y54" t="s" s="2">
-        <v>280</v>
-      </c>
       <c r="Z54" t="s" s="2">
         <v>40</v>
       </c>
@@ -7061,7 +7057,7 @@
         <v>40</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
@@ -7090,7 +7086,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7116,10 +7112,10 @@
         <v>188</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7170,7 +7166,7 @@
         <v>40</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
@@ -7199,7 +7195,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7308,7 +7304,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7419,7 +7415,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7532,7 +7528,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7558,10 +7554,10 @@
         <v>119</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -7612,7 +7608,7 @@
         <v>40</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
@@ -7641,7 +7637,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7667,10 +7663,10 @@
         <v>184</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -7721,7 +7717,7 @@
         <v>40</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
@@ -7750,7 +7746,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7773,7 +7769,7 @@
         <v>40</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K61" t="s" s="2">
         <v>185</v>
@@ -7806,14 +7802,14 @@
         <v>40</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="X61" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="Y61" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="Y61" t="s" s="2">
-        <v>295</v>
-      </c>
       <c r="Z61" t="s" s="2">
         <v>40</v>
       </c>
@@ -7830,7 +7826,7 @@
         <v>40</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>41</v>
@@ -7859,7 +7855,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -7882,13 +7878,13 @@
         <v>40</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -7915,14 +7911,14 @@
         <v>40</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="X62" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="Y62" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="Y62" t="s" s="2">
-        <v>300</v>
-      </c>
       <c r="Z62" t="s" s="2">
         <v>40</v>
       </c>
@@ -7939,7 +7935,7 @@
         <v>40</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>41</v>
